--- a/data/case1/11/V1_3.xlsx
+++ b/data/case1/11/V1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998698026804</v>
+        <v>0.99999999446620147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99311353427194449</v>
+        <v>0.99414982016468223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.96583726601344999</v>
+        <v>0.97172387839909891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.95373183166701381</v>
+        <v>0.96171981562347542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.94196922258341553</v>
+        <v>0.95211972498379849</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.91309227414873706</v>
+        <v>0.92861073718331111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.90933443782134771</v>
+        <v>0.92576710356951053</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.90442494150747255</v>
+        <v>0.92249619870647748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.89995696719383367</v>
+        <v>0.92073180483135419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8964142906973539</v>
+        <v>0.91227946431830587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.89596104361398288</v>
+        <v>0.91107823107343244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.89535440588995541</v>
+        <v>0.90904892293366069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8919947754387898</v>
+        <v>0.90112985610271024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.89136308533464459</v>
+        <v>0.89838283432854826</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8920714262570959</v>
+        <v>0.89717194571699876</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.89346818752209523</v>
+        <v>0.89632793586118142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.89819872831539993</v>
+        <v>0.89261992890650865</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.89708986150929382</v>
+        <v>0.89151101007909705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99074787388769647</v>
+        <v>0.99094109109290884</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97196887272560917</v>
+        <v>0.96472685284108772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97057043843211166</v>
+        <v>0.96332833677144802</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.96930594481299426</v>
+        <v>0.96206382183136463</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9558912982147707</v>
+        <v>0.96468815346922177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.94286897763163258</v>
+        <v>0.95166633239031162</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.93641176588640307</v>
+        <v>0.94520917807485505</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.90943378164800359</v>
+        <v>0.92556236947845139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.90458325833971331</v>
+        <v>0.921561941527409</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.88309741691214771</v>
+        <v>0.90393019031405819</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.86782161948407111</v>
+        <v>0.89150845395625999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.86125044111428228</v>
+        <v>0.88638654713653353</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.85359637959095425</v>
+        <v>0.88232842370363418</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.85191713660679014</v>
+        <v>0.88064909096927901</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8513971612393072</v>
+        <v>0.88012908342223928</v>
       </c>
     </row>
   </sheetData>
